--- a/BalanceSheet/VRTX_bal.xlsx
+++ b/BalanceSheet/VRTX_bal.xlsx
@@ -507,19 +507,19 @@
         <v>298863000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-37107000.0</v>
+        <v>281000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-30521000.0</v>
+        <v>245000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-36936000.0</v>
+        <v>219000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-27450000.0</v>
+        <v>187000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-18767000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>162306000.0</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8200382000.0</v>
+        <v>8539307000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8133000000.0</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>710506000.0</v>
+        <v>49262000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>29000000.0</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3914677000.0</v>
+        <v>3575752000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3618429000.0</v>
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1659876000.0</v>
+        <v>127839000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>35123000.0</v>
+        <v>155000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1456000.0</v>
+        <v>108000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>412000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>14285000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-10575000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>92528000.0</v>
@@ -2303,10 +2303,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>1532037000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1404971000.0</v>
@@ -3123,7 +3121,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>572856000.0</v>
+        <v>284174000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1669000000.0</v>
@@ -3252,7 +3250,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2232732000.0</v>
+        <v>1944050000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1878000000.0</v>
@@ -3378,10 +3376,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>530330000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>890000000.0</v>
@@ -3668,19 +3664,19 @@
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>212231000.0</v>
+        <v>-883000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>56147000.0</v>
+        <v>-1148000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-27742000.0</v>
+        <v>-1215000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>36705000.0</v>
+        <v>-1148000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>73212000.0</v>
+        <v>-1191000000.0</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
@@ -3995,7 +3991,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>902073000.0</v>
+        <v>291958000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>298000000.0</v>
@@ -4122,7 +4118,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>902073000.0</v>
+        <v>1190755000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1187460000.0</v>
@@ -4375,10 +4371,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>7499161000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>7894027000.0</v>
@@ -4504,10 +4498,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>2588000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>3000000.0</v>
@@ -4633,10 +4625,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>1511807000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>859000000.0</v>
@@ -4762,10 +4752,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>8980254000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>8687000000.0</v>
@@ -5399,10 +5387,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>-6923968000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>-5717000000.0</v>
